--- a/dfPrediccion.xlsx
+++ b/dfPrediccion.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,13 +406,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7668.33154296875</v>
+        <v>7552.7978515625</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,13 +420,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7448.9814453125</v>
+        <v>7415.4716796875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,13 +434,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>7524.72216796875</v>
+        <v>7461.67138671875</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>7487.5546875</v>
+        <v>7363.22607421875</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>7505.6279296875</v>
+        <v>7325.51611328125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7575.3515625</v>
+        <v>7363.67919921875</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -490,13 +490,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>7692.67919921875</v>
+        <v>7235.015625</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -504,13 +504,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>7677.70751953125</v>
+        <v>7426.04296875</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -518,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7662.544921875</v>
+        <v>7442.71142578125</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -532,13 +532,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>7637.458984375</v>
+        <v>7461.1865234375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -546,13 +546,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>7618.4990234375</v>
+        <v>7463.392578125</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -560,13 +560,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>7635.63037109375</v>
+        <v>7494.93896484375</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -574,13 +574,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7612.3564453125</v>
+        <v>7428.25390625</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -588,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C15">
         <v>13</v>
       </c>
       <c r="D15">
-        <v>7562.9755859375</v>
+        <v>7493.05517578125</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -602,13 +602,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>7580.80810546875</v>
+        <v>7434.95166015625</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -616,13 +616,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C17">
         <v>15</v>
       </c>
       <c r="D17">
-        <v>7513.33642578125</v>
+        <v>7498.55126953125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -630,13 +630,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>7552.962890625</v>
+        <v>7515.53369140625</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>7482.8759765625</v>
+        <v>7424.79150390625</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -658,13 +658,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C20">
         <v>18</v>
       </c>
       <c r="D20">
-        <v>7473.73388671875</v>
+        <v>7451.2919921875</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -672,13 +672,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C21">
         <v>19</v>
       </c>
       <c r="D21">
-        <v>7548.1171875</v>
+        <v>7428.0908203125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C22">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>7568.42138671875</v>
+        <v>7527.73828125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -700,13 +700,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>7540.31591796875</v>
+        <v>7499.58203125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -714,13 +714,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C24">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>7541.18505859375</v>
+        <v>7473.0791015625</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -728,13 +728,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>7583.68408203125</v>
+        <v>7421.859375</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -742,13 +742,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>7564.2880859375</v>
+        <v>7439.10302734375</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -756,13 +756,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>7541.927734375</v>
+        <v>7440.11572265625</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -770,55 +770,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="C28">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>7513.1513671875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45384</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>7484.74951171875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45384</v>
-      </c>
-      <c r="C30">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>7543.05810546875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45384</v>
-      </c>
-      <c r="C31">
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <v>7481.060546875</v>
+        <v>7376.45751953125</v>
       </c>
     </row>
   </sheetData>
